--- a/excel/SampleUploadDMBoMon.xlsx
+++ b/excel/SampleUploadDMBoMon.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Thesis\gen-tool\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4FC775D0-8B6F-49D7-895C-5B2C6F00D513}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AC77B87-71A5-48A7-8EB8-8F74525A5816}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F1A3D6C5-570A-42B3-8EB5-2508E0F0AB8C}"/>
   </bookViews>
@@ -54,9 +54,6 @@
     <t xml:space="preserve">   XOA_TEN</t>
   </si>
   <si>
-    <t xml:space="preserve">   SO_NGAYQD_XOA_TEN</t>
-  </si>
-  <si>
     <t>GHI_CHU</t>
   </si>
   <si>
@@ -339,12 +336,6 @@
     <t>Lab. of Computational Chemistry</t>
   </si>
   <si>
-    <t>2016 Số 868/QĐ 15/4</t>
-  </si>
-  <si>
-    <t>Giải thể theo số 1975/QĐ-ĐHBK-TCHC</t>
-  </si>
-  <si>
     <t>Phòng TN trực thuộc khoa</t>
   </si>
   <si>
@@ -432,36 +423,24 @@
     <t>Computer Lab</t>
   </si>
   <si>
-    <t>2016 Số 881/QĐ 15/4</t>
-  </si>
-  <si>
     <t>1910</t>
   </si>
   <si>
     <t>Xưởng thực tập Điện tử</t>
   </si>
   <si>
-    <t>2016 Số 880/QĐ 15/4</t>
-  </si>
-  <si>
     <t>1911</t>
   </si>
   <si>
     <t>Xưởng thực tập Điện</t>
   </si>
   <si>
-    <t>2016 Số 882/QĐ 15/4</t>
-  </si>
-  <si>
     <t>1912</t>
   </si>
   <si>
     <t>Phòng thí nghiệm Hệ thống năng lượng</t>
   </si>
   <si>
-    <t>2016 Số 886/QĐ 15/4</t>
-  </si>
-  <si>
     <t>1913</t>
   </si>
   <si>
@@ -621,18 +600,12 @@
     <t>Phòng thí nghiệm Kết cấu công trình</t>
   </si>
   <si>
-    <t>2016 Số 883/QĐ 15/4</t>
-  </si>
-  <si>
     <t>2114</t>
   </si>
   <si>
     <t>Phòng thí nghiệm Vật lý Kiến trúc</t>
   </si>
   <si>
-    <t>2016 Số 884/QĐ 15/4</t>
-  </si>
-  <si>
     <t>2115</t>
   </si>
   <si>
@@ -735,9 +708,6 @@
     <t>Mechanical Workshop</t>
   </si>
   <si>
-    <t>2016  Số 870/QĐ 15/4</t>
-  </si>
-  <si>
     <t>Trực thuộc khoa</t>
   </si>
   <si>
@@ -759,45 +729,30 @@
     <t>Metrology Lab</t>
   </si>
   <si>
-    <t>2016 Số 869/QĐ 15/4</t>
-  </si>
-  <si>
     <t>2215</t>
   </si>
   <si>
     <t>Phòng thí nghiệm CAD/CAM</t>
   </si>
   <si>
-    <t>2016 Số 872/QĐ 15/4</t>
-  </si>
-  <si>
     <t>2216</t>
   </si>
   <si>
     <t>Phòng thí nghiệm Điều khiển và Tự động hóa</t>
   </si>
   <si>
-    <t>2016 Số 871/QĐ 15/4</t>
-  </si>
-  <si>
     <t>2217</t>
   </si>
   <si>
     <t>Không gian học tập CDIO</t>
   </si>
   <si>
-    <t>2016 Số 873/QĐ 15/4</t>
-  </si>
-  <si>
     <t>2218</t>
   </si>
   <si>
     <t>Phòng thí nghiệm Công nghệ Tạo hình và Xử lý Vật liệu</t>
   </si>
   <si>
-    <t>2016 số 1293/QĐ 6/6/16</t>
-  </si>
-  <si>
     <t>2301</t>
   </si>
   <si>
@@ -855,9 +810,6 @@
     <t>Simulation Laboratory on Geology and Petroleum Engineering (Simlab on Geopet)</t>
   </si>
   <si>
-    <t>2016 Số 877/QĐ 15/4</t>
-  </si>
-  <si>
     <t>2307</t>
   </si>
   <si>
@@ -900,9 +852,6 @@
     <t>Phòng thí nghiệm Phân tích Môi trường</t>
   </si>
   <si>
-    <t>2016 Số 879/QĐ 15/4</t>
-  </si>
-  <si>
     <t>2404</t>
   </si>
   <si>
@@ -936,9 +885,6 @@
     <t>Phòng thí nghiệm Mô hình hóa môi trường</t>
   </si>
   <si>
-    <t>2016  Số 878/QĐ 15/4</t>
-  </si>
-  <si>
     <t>2500</t>
   </si>
   <si>
@@ -990,9 +936,6 @@
     <t>Simulation Laboratory</t>
   </si>
   <si>
-    <t>2016 Số 885/QĐ 15/4</t>
-  </si>
-  <si>
     <t>2601</t>
   </si>
   <si>
@@ -1137,9 +1080,6 @@
     <t>Phòng Sát hạch công nghệ thông tin</t>
   </si>
   <si>
-    <t>Ngày 15/12/2016</t>
-  </si>
-  <si>
     <t>Trực thuộc Trung tâm (QĐ 3466)</t>
   </si>
   <si>
@@ -1341,18 +1281,12 @@
     <t>Laboratory of General Physics</t>
   </si>
   <si>
-    <t>2016 Số 874/QĐ 15/4</t>
-  </si>
-  <si>
     <t>4809</t>
   </si>
   <si>
     <t>Phòng thí nghiệm Công nghệ Laser</t>
   </si>
   <si>
-    <t>2016 Số 876/QĐ 15/4</t>
-  </si>
-  <si>
     <t>4810</t>
   </si>
   <si>
@@ -1362,18 +1296,12 @@
     <t>Laboratory of Computational Physics</t>
   </si>
   <si>
-    <t>2016 Số 875/QĐ 15/4</t>
-  </si>
-  <si>
     <t>4811</t>
   </si>
   <si>
     <t>Phòng thí nghiệm Cơ học Ứng dụng</t>
   </si>
   <si>
-    <t>2016 số 1295/QĐ 6/6</t>
-  </si>
-  <si>
     <t>5000</t>
   </si>
   <si>
@@ -1738,6 +1666,78 @@
   </si>
   <si>
     <t>86</t>
+  </si>
+  <si>
+    <t>NGAY_QD_XOA_TEN</t>
+  </si>
+  <si>
+    <t>SO_QD_XOA_TEN</t>
+  </si>
+  <si>
+    <t>1975/QĐ-ĐHBK-TCHC</t>
+  </si>
+  <si>
+    <t>868/QĐ 15/4</t>
+  </si>
+  <si>
+    <t>881/QĐ 15/4</t>
+  </si>
+  <si>
+    <t>880/QĐ 15/4</t>
+  </si>
+  <si>
+    <t>882/QĐ 15/4</t>
+  </si>
+  <si>
+    <t>886/QĐ 15/4</t>
+  </si>
+  <si>
+    <t>883/QĐ 15/4</t>
+  </si>
+  <si>
+    <t>884/QĐ 15/4</t>
+  </si>
+  <si>
+    <t>870/QĐ 15/4</t>
+  </si>
+  <si>
+    <t>869/QĐ 15/4</t>
+  </si>
+  <si>
+    <t>872/QĐ 15/4</t>
+  </si>
+  <si>
+    <t>871/QĐ 15/4</t>
+  </si>
+  <si>
+    <t>873/QĐ 15/4</t>
+  </si>
+  <si>
+    <t>1293/QĐ 6/6/16</t>
+  </si>
+  <si>
+    <t>877/QĐ</t>
+  </si>
+  <si>
+    <t>879/QĐ</t>
+  </si>
+  <si>
+    <t>878/QĐ</t>
+  </si>
+  <si>
+    <t>885/QĐ</t>
+  </si>
+  <si>
+    <t>874/QĐ 15/4</t>
+  </si>
+  <si>
+    <t>876/QĐ 15/4</t>
+  </si>
+  <si>
+    <t>875/QĐ 15/4</t>
+  </si>
+  <si>
+    <t>1295/QĐ 6/6</t>
   </si>
 </sst>
 </file>
@@ -1814,7 +1814,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1839,6 +1839,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2154,26 +2155,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74CB3808-D03D-47FC-8152-BDBED6EC01A0}">
-  <dimension ref="A1:I173"/>
+  <dimension ref="A1:J173"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="F161" workbookViewId="0">
+      <selection activeCell="C173" sqref="C173"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="97.28515625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.85546875" style="8" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="80.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="50.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="93.140625" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5703125" style="6" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" style="9" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="42.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="65.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="65.28515625" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2196,3288 +2198,3357 @@
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="F2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="F3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="C4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="F4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="C5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="F5" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>24</v>
       </c>
       <c r="G5" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="J5" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="B6" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="C6" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="F6" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="G6" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="B7" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>31</v>
-      </c>
       <c r="C7" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E7" s="6">
         <v>2012</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G7" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="I7" s="6" t="s">
+      <c r="J7" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="B8" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="C8" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="F8" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="G8" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="G8" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="B9" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="C9" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="F9" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="G9" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="B10" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="C10" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="F10" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="G10" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="G10" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="B11" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="C11" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="F11" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="G11" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G11" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="B12" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="C12" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="F12" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="G12" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="G12" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="B13" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="C13" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="E13" s="6">
         <v>2013</v>
       </c>
       <c r="F13" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="G13" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" s="6" t="s">
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="B14" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="C14" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="F14" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="G14" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="G14" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="B15" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="C15" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="F15" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="G15" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="G15" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="B16" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="C16" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="F16" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="G16" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="G16" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="B17" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>72</v>
-      </c>
       <c r="C17" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E17" s="6">
         <v>2012</v>
       </c>
       <c r="F17" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G17" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="G17" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I17" s="6" t="s">
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+      <c r="B18" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="C18" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C18" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F18" s="5" t="s">
+      <c r="G18" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="G18" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="B19" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="C19" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="F19" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G19" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F19" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="G19" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="B20" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="C20" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="F20" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G20" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="F20" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="G20" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="B21" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="C21" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="F21" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G21" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="F21" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="G21" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+      <c r="B22" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="C22" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="F22" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G22" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="F22" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="G22" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+      <c r="B23" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="C23" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="F23" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G23" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="F23" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="G23" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
+      <c r="B24" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="C24" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="F24" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G24" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="F24" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="G24" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+      <c r="B25" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="C25" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="F25" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G25" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="F25" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="G25" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
+      <c r="B26" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="C26" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="C26" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>102</v>
+      <c r="D26" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="E26" s="10">
+        <v>42475</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G26" s="6" t="b">
         <v>1</v>
       </c>
       <c r="H26" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="I26" s="10">
+        <v>43831</v>
+      </c>
+      <c r="J26" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="I26" s="6" t="s">
+      <c r="C27" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F27" s="5" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+      <c r="G27" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B28" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="C27" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F27" s="5" t="s">
+      <c r="C28" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="G27" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
+      <c r="F28" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="G28" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J28" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="B28" s="6" t="s">
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="B29" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="F28" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="G28" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I28" s="6" t="s">
+      <c r="C29" s="7" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
+      <c r="F29" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="G29" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B30" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C30" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F29" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="G29" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
+      <c r="F30" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="G30" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B31" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C31" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F30" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="G30" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
+      <c r="F31" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="G31" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B32" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C32" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="F31" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="G31" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
+      <c r="F32" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="G32" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B33" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C33" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="F32" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="G32" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
+      <c r="F33" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="G33" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B34" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C34" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F33" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="G33" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
+      <c r="F34" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="G34" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B35" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C35" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="F34" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="G34" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
+      <c r="D35" s="6" t="s">
+        <v>549</v>
+      </c>
+      <c r="E35" s="10">
+        <v>42475</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="G35" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J35" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B36" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C36" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="E36" s="10">
+        <v>42475</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="G36" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J36" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="E35" s="6" t="s">
+      <c r="B37" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="F35" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="G35" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I35" s="6" t="s">
+      <c r="C37" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="E37" s="10">
+        <v>42475</v>
+      </c>
+      <c r="F37" s="5" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
+      <c r="G37" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J37" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B38" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C36" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E36" s="6" t="s">
+      <c r="C38" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="E38" s="10">
+        <v>42475</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="G38" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J38" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="F36" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="G36" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I36" s="6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
+      <c r="B39" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="C39" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="G37" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I37" s="6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="G38" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I38" s="6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="E39" s="6">
         <v>2015</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G39" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="I39" s="6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J39" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="G40" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="G41" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B42" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="C42" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="C40" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F40" s="5" t="s">
+      <c r="F42" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="G42" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="G40" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="33" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
+      <c r="B43" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="C43" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="F43" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="G43" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="F41" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="G41" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="33" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
+      <c r="B44" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="C44" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F44" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="G44" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="F42" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="G42" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
+      <c r="B45" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="C45" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="F45" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="G45" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="F43" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="G43" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
+      <c r="B46" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="C46" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="C44" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F44" s="5" t="s">
+      <c r="F46" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="G46" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="G44" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
+      <c r="B47" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="C47" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="G47" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J47" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="C45" s="7" t="s">
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="F45" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="G45" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
+      <c r="B48" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="C48" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="F48" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="G48" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="F46" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="G46" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
+      <c r="B49" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="C49" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="C47" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="G47" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I47" s="6" t="s">
+      <c r="F49" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="G49" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
+      <c r="B50" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="C50" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="F50" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="G50" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="F48" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="G48" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
+      <c r="B51" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="B49" s="6" t="s">
+      <c r="C51" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="F51" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="G51" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="F49" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="G49" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
+      <c r="B52" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="B50" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="F50" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="G50" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="F51" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="G51" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>183</v>
-      </c>
       <c r="C52" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E52" s="6">
         <v>2015</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="G52" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="I52" s="6" t="s">
+      <c r="J52" s="6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="G53" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="G54" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="5" t="s">
+      <c r="B55" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="C55" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="C53" s="7" t="s">
+      <c r="F55" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="G55" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="F53" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="G53" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="5" t="s">
+      <c r="B56" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="C56" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="E56" s="10">
+        <v>42475</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="G56" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J56" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="C54" s="7" t="s">
+      <c r="B57" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="F54" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="G54" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="5" t="s">
+      <c r="C57" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D57" s="6" t="s">
+        <v>554</v>
+      </c>
+      <c r="E57" s="10">
+        <v>42475</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="G57" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J57" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B58" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="C55" s="7" t="s">
+      <c r="C58" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="G58" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="F55" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="G55" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="5" t="s">
+      <c r="B59" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="B56" s="6" t="s">
+      <c r="C59" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F59" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="C56" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E56" s="6" t="s">
+      <c r="G59" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="F56" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="G56" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I56" s="6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="5" t="s">
+      <c r="B60" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="B57" s="6" t="s">
+      <c r="C60" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="C57" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E57" s="6" t="s">
+      <c r="F60" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="G60" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="F57" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="G57" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I57" s="6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="5" t="s">
+      <c r="B61" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="B58" s="6" t="s">
+      <c r="C61" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="C58" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F58" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="G58" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="5" t="s">
+      <c r="F61" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="G61" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="B59" s="6" t="s">
+      <c r="B62" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="C59" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F59" s="5" t="s">
+      <c r="C62" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="G59" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="5" t="s">
+      <c r="F62" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="G62" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="B60" s="6" t="s">
+      <c r="B63" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="C60" s="7" t="s">
+      <c r="C63" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="F60" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="G60" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="5" t="s">
+      <c r="F63" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="G63" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="B61" s="6" t="s">
+      <c r="B64" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="C61" s="7" t="s">
+      <c r="C64" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="F61" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="G61" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="5" t="s">
+      <c r="F64" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="G64" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="B62" s="6" t="s">
+      <c r="B65" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="C62" s="7" t="s">
+      <c r="C65" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="F62" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="G62" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="B63" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="C63" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="F63" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="G63" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="B64" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="C64" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="F64" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="G64" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" ht="33" x14ac:dyDescent="0.25">
-      <c r="A65" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="B65" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="C65" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="E65" s="6">
         <v>2015</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="G65" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="I65" s="6" t="s">
+      <c r="J65" s="6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="G66" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="G67" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J67" s="6" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="B68" s="6" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="5" t="s">
+      <c r="C68" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="B66" s="6" t="s">
+      <c r="D68" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="E68" s="10">
+        <v>42475</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="G68" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J68" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="C66" s="7" t="s">
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="F66" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="G66" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="5" t="s">
+      <c r="B69" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="B67" s="6" t="s">
+      <c r="C69" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="C67" s="7" t="s">
+      <c r="F69" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="G69" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="F67" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="G67" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I67" s="6" t="s">
+      <c r="B70" s="6" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="5" t="s">
+      <c r="C70" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="B68" s="6" t="s">
+      <c r="D70" s="6" t="s">
+        <v>556</v>
+      </c>
+      <c r="E70" s="10">
+        <v>42475</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="G70" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J70" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="C68" s="7" t="s">
+      <c r="B71" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="E68" s="6" t="s">
+      <c r="C71" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>557</v>
+      </c>
+      <c r="E71" s="10">
+        <v>42475</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="G71" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J71" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="F68" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="G68" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I68" s="6" t="s">
+      <c r="B72" s="6" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="5" t="s">
+      <c r="C72" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>558</v>
+      </c>
+      <c r="E72" s="10">
+        <v>42475</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="G72" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J72" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="B69" s="6" t="s">
+      <c r="B73" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="C69" s="7" t="s">
+      <c r="C73" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>559</v>
+      </c>
+      <c r="E73" s="10">
+        <v>42475</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="G73" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J73" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="F69" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="G69" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="5" t="s">
+      <c r="B74" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="B70" s="6" t="s">
+      <c r="C74" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="E74" s="10">
+        <v>42527</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="G74" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J74" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="C70" s="7" t="s">
+      <c r="B75" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="E70" s="6" t="s">
+      <c r="C75" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F75" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="F70" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="G70" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I70" s="6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="5" t="s">
+      <c r="G75" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="B71" s="6" t="s">
+      <c r="B76" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="C71" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E71" s="6" t="s">
+      <c r="C76" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="F71" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="G71" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I71" s="6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="5" t="s">
+      <c r="F76" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="G76" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="B72" s="6" t="s">
+      <c r="B77" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="C72" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E72" s="6" t="s">
+      <c r="C77" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="F72" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="G72" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I72" s="6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="5" t="s">
-        <v>249</v>
-      </c>
-      <c r="B73" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="C73" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E73" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="F73" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="G73" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I73" s="6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="B74" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="C74" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E74" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="F74" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="G74" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I74" s="6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="B75" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="C75" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F75" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="G75" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" ht="33" x14ac:dyDescent="0.25">
-      <c r="A76" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="B76" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="C76" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="F76" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="G76" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="B77" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="C77" s="7" t="s">
-        <v>263</v>
       </c>
       <c r="E77" s="6">
         <v>2015</v>
       </c>
       <c r="F77" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="G77" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J77" s="6" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="G78" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="G79" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="B80" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="G77" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I77" s="6" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="B78" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="C78" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="F78" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="G78" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="B79" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="C79" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="F79" s="5" t="s">
-        <v>257</v>
-      </c>
-      <c r="G79" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" ht="33" x14ac:dyDescent="0.25">
-      <c r="A80" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="B80" s="6" t="s">
-        <v>272</v>
-      </c>
       <c r="C80" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="E80" s="6" t="s">
-        <v>274</v>
+        <v>258</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="E80" s="10">
+        <v>42475</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="G80" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="I80" s="6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J80" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="C81" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E81" s="6">
         <v>2012</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="G81" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="I81" s="6" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J81" s="6" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E82" s="6">
         <v>2014</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="G82" s="6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="C83" s="7" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="G83" s="6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
-        <v>284</v>
+        <v>268</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>285</v>
+        <v>269</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="G84" s="6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E85" s="6" t="s">
-        <v>289</v>
+        <v>31</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>562</v>
+      </c>
+      <c r="E85" s="10">
+        <v>42475</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="G85" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="I85" s="6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J85" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
-        <v>290</v>
+        <v>273</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="C86" s="7" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
       <c r="E86" s="6">
         <v>2014</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="G86" s="6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c r="C87" s="7" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="E87" s="6">
         <v>2014</v>
       </c>
       <c r="F87" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="G87" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A88" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="B88" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="G87" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="B88" s="6" t="s">
-        <v>297</v>
-      </c>
       <c r="C88" s="7" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="E88" s="6">
         <v>2014</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="G88" s="6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>563</v>
+      </c>
+      <c r="E89" s="10">
+        <v>42475</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="G89" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J89" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A90" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="G90" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="F91" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="G91" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A92" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="F92" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="G92" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A93" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="F93" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="G93" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A94" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="G94" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A95" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="B89" s="6" t="s">
+      <c r="B95" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="C95" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="C89" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E89" s="6" t="s">
+      <c r="D95" s="6" t="s">
+        <v>564</v>
+      </c>
+      <c r="E95" s="10">
+        <v>42475</v>
+      </c>
+      <c r="F95" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="G95" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J95" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A96" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="F89" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="G89" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I89" s="6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" s="5" t="s">
+      <c r="B96" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="B90" s="6" t="s">
+      <c r="C96" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F96" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="C90" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F90" s="5" t="s">
+      <c r="G96" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A97" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="G90" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A91" s="5" t="s">
+      <c r="B97" s="6" t="s">
         <v>305</v>
       </c>
-      <c r="B91" s="6" t="s">
+      <c r="C97" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="C91" s="7" t="s">
+      <c r="F97" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="G97" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A98" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="F91" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="G91" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" ht="33" x14ac:dyDescent="0.25">
-      <c r="A92" s="5" t="s">
+      <c r="B98" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="B92" s="6" t="s">
+      <c r="C98" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="C92" s="7" t="s">
+      <c r="F98" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="G98" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A99" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="F92" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="G92" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A93" s="5" t="s">
+      <c r="B99" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="B93" s="6" t="s">
+      <c r="C99" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="C93" s="7" t="s">
+      <c r="F99" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="G99" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A100" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="F93" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="G93" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A94" s="5" t="s">
+      <c r="B100" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="B94" s="6" t="s">
+      <c r="C100" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="C94" s="7" t="s">
+      <c r="F100" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="G100" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A101" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="F94" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="G94" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A95" s="5" t="s">
+      <c r="B101" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="B95" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="C95" s="7" t="s">
+      <c r="C101" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="E95" s="6" t="s">
+      <c r="F101" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="G101" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A102" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="F95" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="G95" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I95" s="6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A96" s="5" t="s">
+      <c r="B102" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="B96" s="6" t="s">
+      <c r="C102" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="C96" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F96" s="5" t="s">
+      <c r="F102" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="G102" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J102" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A103" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="G96" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A97" s="5" t="s">
+      <c r="B103" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="B97" s="6" t="s">
+      <c r="C103" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F103" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="G103" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J103" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A104" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="C97" s="7" t="s">
+      <c r="B104" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="F97" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="G97" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A98" s="5" t="s">
+      <c r="C104" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F104" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="G104" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A105" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="B98" s="6" t="s">
+      <c r="B105" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="C98" s="7" t="s">
+      <c r="C105" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="F98" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="G98" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A99" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="B99" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="C99" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="F99" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="G99" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A100" s="5" t="s">
-        <v>332</v>
-      </c>
-      <c r="B100" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="C100" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="F100" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="G100" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A101" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="B101" s="6" t="s">
-        <v>336</v>
-      </c>
-      <c r="C101" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="F101" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="G101" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" ht="33" x14ac:dyDescent="0.25">
-      <c r="A102" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="B102" s="6" t="s">
-        <v>339</v>
-      </c>
-      <c r="C102" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="F102" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="G102" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I102" s="6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A103" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="B103" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="C103" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F103" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="G103" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I103" s="6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A104" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="B104" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="C104" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F104" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="G104" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A105" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="B105" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="C105" s="7" t="s">
-        <v>347</v>
       </c>
       <c r="E105" s="6">
         <v>2013</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="G105" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="I105" s="6" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J105" s="6" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
-        <v>350</v>
+        <v>331</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>352</v>
+        <v>333</v>
       </c>
       <c r="G106" s="6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
-        <v>353</v>
+        <v>334</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>354</v>
+        <v>335</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="G107" s="6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
-        <v>357</v>
+        <v>338</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>358</v>
+        <v>339</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>359</v>
+        <v>340</v>
       </c>
       <c r="G108" s="6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
-        <v>360</v>
+        <v>341</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>361</v>
+        <v>342</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>362</v>
+        <v>343</v>
       </c>
       <c r="G109" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="I109" s="6" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J109" s="6" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
-        <v>364</v>
+        <v>345</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F110" s="5" t="s">
-        <v>362</v>
+        <v>343</v>
       </c>
       <c r="G110" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="I110" s="6" t="s">
+      <c r="J110" s="6" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A111" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="B111" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="C111" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E111" s="10">
+        <v>42719</v>
+      </c>
+      <c r="F111" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="G111" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J111" s="6" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A112" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="B112" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F112" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="G112" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A113" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="B113" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="C113" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="F113" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="G113" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A114" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="B114" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="C114" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F114" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="G114" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A115" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="B115" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="C115" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F115" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="G115" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A116" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="B116" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="C116" s="7" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A111" s="5" t="s">
+      <c r="F116" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="B111" s="6" t="s">
+      <c r="G116" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A117" s="5" t="s">
         <v>367</v>
       </c>
-      <c r="C111" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E111" s="6" t="s">
+      <c r="B117" s="6" t="s">
         <v>368</v>
       </c>
-      <c r="F111" s="5" t="s">
-        <v>362</v>
-      </c>
-      <c r="G111" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I111" s="6" t="s">
+      <c r="C117" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F117" s="5" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A112" s="5" t="s">
+      <c r="G117" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A118" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="B112" s="6" t="s">
+      <c r="B118" s="6" t="s">
         <v>371</v>
       </c>
-      <c r="C112" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F112" s="5" t="s">
+      <c r="C118" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F118" s="5" t="s">
         <v>372</v>
       </c>
-      <c r="G112" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" ht="33" x14ac:dyDescent="0.25">
-      <c r="A113" s="5" t="s">
+      <c r="G118" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A119" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="B113" s="6" t="s">
+      <c r="B119" s="6" t="s">
         <v>374</v>
       </c>
-      <c r="C113" s="7" t="s">
+      <c r="C119" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="F113" s="5" t="s">
+      <c r="F119" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="G119" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A120" s="5" t="s">
         <v>376</v>
       </c>
-      <c r="G113" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A114" s="5" t="s">
+      <c r="B120" s="6" t="s">
         <v>377</v>
       </c>
-      <c r="B114" s="6" t="s">
+      <c r="C120" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="C114" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F114" s="5" t="s">
+      <c r="F120" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="G120" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A121" s="5" t="s">
         <v>379</v>
       </c>
-      <c r="G114" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A115" s="5" t="s">
+      <c r="B121" s="6" t="s">
         <v>380</v>
       </c>
-      <c r="B115" s="6" t="s">
+      <c r="C121" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="C115" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F115" s="5" t="s">
+      <c r="F121" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="G121" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A122" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="G115" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" ht="33" x14ac:dyDescent="0.25">
-      <c r="A116" s="5" t="s">
+      <c r="B122" s="6" t="s">
         <v>383</v>
       </c>
-      <c r="B116" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="C116" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="F116" s="5" t="s">
-        <v>386</v>
-      </c>
-      <c r="G116" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A117" s="5" t="s">
-        <v>387</v>
-      </c>
-      <c r="B117" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="C117" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F117" s="5" t="s">
-        <v>389</v>
-      </c>
-      <c r="G117" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A118" s="5" t="s">
-        <v>390</v>
-      </c>
-      <c r="B118" s="6" t="s">
-        <v>391</v>
-      </c>
-      <c r="C118" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F118" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="G118" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A119" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="B119" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="C119" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="F119" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="G119" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A120" s="5" t="s">
-        <v>396</v>
-      </c>
-      <c r="B120" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="C120" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="F120" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="G120" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A121" s="5" t="s">
-        <v>399</v>
-      </c>
-      <c r="B121" s="6" t="s">
-        <v>400</v>
-      </c>
-      <c r="C121" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="F121" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="G121" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A122" s="5" t="s">
-        <v>402</v>
-      </c>
-      <c r="B122" s="6" t="s">
-        <v>403</v>
-      </c>
       <c r="C122" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E122" s="6">
         <v>2015</v>
       </c>
       <c r="F122" s="5" t="s">
-        <v>392</v>
+        <v>372</v>
       </c>
       <c r="G122" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="I122" s="6" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J122" s="6" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
-        <v>405</v>
+        <v>385</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>406</v>
+        <v>386</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>407</v>
+        <v>387</v>
       </c>
       <c r="G123" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="I123" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J123" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
-        <v>408</v>
+        <v>388</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>409</v>
+        <v>389</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>410</v>
+        <v>390</v>
       </c>
       <c r="G124" s="6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
-        <v>411</v>
+        <v>391</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>412</v>
+        <v>392</v>
       </c>
       <c r="C125" s="7" t="s">
-        <v>413</v>
+        <v>393</v>
       </c>
       <c r="F125" s="5" t="s">
-        <v>414</v>
+        <v>394</v>
       </c>
       <c r="G125" s="6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
-        <v>415</v>
+        <v>395</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>416</v>
+        <v>396</v>
       </c>
       <c r="C126" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>417</v>
+        <v>397</v>
       </c>
       <c r="G126" s="6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="s">
-        <v>418</v>
+        <v>398</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>419</v>
+        <v>399</v>
       </c>
       <c r="C127" s="7" t="s">
-        <v>420</v>
+        <v>400</v>
       </c>
       <c r="F127" s="5" t="s">
-        <v>417</v>
+        <v>397</v>
       </c>
       <c r="G127" s="6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128" s="5" t="s">
-        <v>421</v>
+        <v>401</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>422</v>
+        <v>402</v>
       </c>
       <c r="C128" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E128" s="6">
         <v>2014</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>417</v>
+        <v>397</v>
       </c>
       <c r="G128" s="6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="s">
-        <v>423</v>
+        <v>403</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>424</v>
+        <v>404</v>
       </c>
       <c r="C129" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E129" s="6">
         <v>2014</v>
       </c>
       <c r="F129" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="G129" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A130" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="B130" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="C130" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="F130" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="G130" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A131" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="B131" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="C131" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F131" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="G131" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A132" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="B132" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="C132" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="F132" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="G132" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A133" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="B133" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="C133" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="D133" s="6" t="s">
+        <v>565</v>
+      </c>
+      <c r="E133" s="10">
+        <v>42475</v>
+      </c>
+      <c r="F133" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="G133" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J133" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A134" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="B134" s="6" t="s">
         <v>417</v>
       </c>
-      <c r="G129" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A130" s="5" t="s">
+      <c r="C134" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D134" s="6" t="s">
+        <v>566</v>
+      </c>
+      <c r="E134" s="10">
+        <v>42475</v>
+      </c>
+      <c r="F134" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="G134" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J134" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A135" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="B135" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="C135" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="D135" s="6" t="s">
+        <v>567</v>
+      </c>
+      <c r="E135" s="10">
+        <v>42475</v>
+      </c>
+      <c r="F135" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="G135" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J135" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A136" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="B136" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="C136" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D136" s="6" t="s">
+        <v>568</v>
+      </c>
+      <c r="E136" s="10">
+        <v>42527</v>
+      </c>
+      <c r="F136" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="G136" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J136" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A137" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="B137" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="C137" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F137" s="5" t="s">
         <v>425</v>
       </c>
-      <c r="B130" s="6" t="s">
+      <c r="G137" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A138" s="5" t="s">
         <v>426</v>
       </c>
-      <c r="C130" s="7" t="s">
+      <c r="B138" s="6" t="s">
         <v>427</v>
       </c>
-      <c r="F130" s="5" t="s">
-        <v>417</v>
-      </c>
-      <c r="G130" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A131" s="5" t="s">
+      <c r="C138" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F138" s="5" t="s">
         <v>428</v>
-      </c>
-      <c r="B131" s="6" t="s">
-        <v>429</v>
-      </c>
-      <c r="C131" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F131" s="5" t="s">
-        <v>417</v>
-      </c>
-      <c r="G131" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A132" s="5" t="s">
-        <v>430</v>
-      </c>
-      <c r="B132" s="6" t="s">
-        <v>431</v>
-      </c>
-      <c r="C132" s="7" t="s">
-        <v>432</v>
-      </c>
-      <c r="F132" s="5" t="s">
-        <v>417</v>
-      </c>
-      <c r="G132" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A133" s="5" t="s">
-        <v>433</v>
-      </c>
-      <c r="B133" s="6" t="s">
-        <v>434</v>
-      </c>
-      <c r="C133" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="E133" s="6" t="s">
-        <v>436</v>
-      </c>
-      <c r="F133" s="5" t="s">
-        <v>417</v>
-      </c>
-      <c r="G133" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I133" s="6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A134" s="5" t="s">
-        <v>437</v>
-      </c>
-      <c r="B134" s="6" t="s">
-        <v>438</v>
-      </c>
-      <c r="C134" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E134" s="6" t="s">
-        <v>439</v>
-      </c>
-      <c r="F134" s="5" t="s">
-        <v>417</v>
-      </c>
-      <c r="G134" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I134" s="6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A135" s="5" t="s">
-        <v>440</v>
-      </c>
-      <c r="B135" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="C135" s="7" t="s">
-        <v>442</v>
-      </c>
-      <c r="E135" s="6" t="s">
-        <v>443</v>
-      </c>
-      <c r="F135" s="5" t="s">
-        <v>417</v>
-      </c>
-      <c r="G135" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I135" s="6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A136" s="5" t="s">
-        <v>444</v>
-      </c>
-      <c r="B136" s="6" t="s">
-        <v>445</v>
-      </c>
-      <c r="C136" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E136" s="6" t="s">
-        <v>446</v>
-      </c>
-      <c r="F136" s="5" t="s">
-        <v>417</v>
-      </c>
-      <c r="G136" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I136" s="6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A137" s="5" t="s">
-        <v>447</v>
-      </c>
-      <c r="B137" s="6" t="s">
-        <v>448</v>
-      </c>
-      <c r="C137" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F137" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="G137" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A138" s="5" t="s">
-        <v>450</v>
-      </c>
-      <c r="B138" s="6" t="s">
-        <v>451</v>
-      </c>
-      <c r="C138" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F138" s="5" t="s">
-        <v>452</v>
       </c>
       <c r="G138" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="I138" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J138" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" s="5" t="s">
-        <v>453</v>
+        <v>429</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>454</v>
+        <v>430</v>
       </c>
       <c r="C139" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F139" s="5" t="s">
-        <v>455</v>
+        <v>431</v>
       </c>
       <c r="G139" s="6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A140" s="5" t="s">
-        <v>456</v>
+        <v>432</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>457</v>
+        <v>433</v>
       </c>
       <c r="C140" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F140" s="5" t="s">
-        <v>458</v>
+        <v>434</v>
       </c>
       <c r="G140" s="6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" s="5" t="s">
-        <v>459</v>
+        <v>435</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>460</v>
+        <v>436</v>
       </c>
       <c r="C141" s="7" t="s">
-        <v>461</v>
+        <v>437</v>
       </c>
       <c r="F141" s="5" t="s">
-        <v>462</v>
+        <v>438</v>
       </c>
       <c r="G141" s="6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" s="5" t="s">
-        <v>463</v>
+        <v>439</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>464</v>
+        <v>440</v>
       </c>
       <c r="C142" s="7" t="s">
-        <v>465</v>
+        <v>441</v>
       </c>
       <c r="F142" s="5" t="s">
-        <v>466</v>
+        <v>442</v>
       </c>
       <c r="G142" s="6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" s="5" t="s">
-        <v>467</v>
+        <v>443</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>468</v>
+        <v>444</v>
       </c>
       <c r="C143" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F143" s="5" t="s">
-        <v>469</v>
+        <v>445</v>
       </c>
       <c r="G143" s="6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" s="5" t="s">
-        <v>470</v>
+        <v>446</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>471</v>
+        <v>447</v>
       </c>
       <c r="C144" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F144" s="5" t="s">
-        <v>472</v>
+        <v>448</v>
       </c>
       <c r="G144" s="6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" s="5" t="s">
-        <v>473</v>
+        <v>449</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>474</v>
+        <v>450</v>
       </c>
       <c r="C145" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F145" s="5" t="s">
-        <v>472</v>
+        <v>448</v>
       </c>
       <c r="G145" s="6" t="b">
         <v>1</v>
       </c>
-      <c r="I145" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J145" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="B146" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="C146" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F146" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="G146" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A147" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="B147" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="C147" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F147" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="G147" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A148" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="B148" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="C148" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F148" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="G148" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J148" s="6" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A149" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="B149" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="C149" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F149" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="G149" s="6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A150" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="B150" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="C150" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F150" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="G150" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J150" s="6" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A151" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="B151" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="C151" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F151" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="G151" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J151" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A152" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="B152" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="C152" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F152" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="G152" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J152" s="6" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A153" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="B153" s="6" t="s">
         <v>475</v>
       </c>
-      <c r="B146" s="6" t="s">
+      <c r="C153" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F153" s="5" t="s">
         <v>476</v>
-      </c>
-      <c r="C146" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F146" s="5" t="s">
-        <v>477</v>
-      </c>
-      <c r="G146" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A147" s="5" t="s">
-        <v>478</v>
-      </c>
-      <c r="B147" s="6" t="s">
-        <v>479</v>
-      </c>
-      <c r="C147" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F147" s="5" t="s">
-        <v>480</v>
-      </c>
-      <c r="G147" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A148" s="5" t="s">
-        <v>481</v>
-      </c>
-      <c r="B148" s="6" t="s">
-        <v>482</v>
-      </c>
-      <c r="C148" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F148" s="5" t="s">
-        <v>483</v>
-      </c>
-      <c r="G148" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I148" s="6" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A149" s="5" t="s">
-        <v>485</v>
-      </c>
-      <c r="B149" s="6" t="s">
-        <v>486</v>
-      </c>
-      <c r="C149" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F149" s="5" t="s">
-        <v>487</v>
-      </c>
-      <c r="G149" s="6" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A150" s="5" t="s">
-        <v>488</v>
-      </c>
-      <c r="B150" s="6" t="s">
-        <v>489</v>
-      </c>
-      <c r="C150" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F150" s="5" t="s">
-        <v>490</v>
-      </c>
-      <c r="G150" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I150" s="6" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A151" s="5" t="s">
-        <v>491</v>
-      </c>
-      <c r="B151" s="6" t="s">
-        <v>492</v>
-      </c>
-      <c r="C151" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F151" s="5" t="s">
-        <v>493</v>
-      </c>
-      <c r="G151" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I151" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A152" s="5" t="s">
-        <v>494</v>
-      </c>
-      <c r="B152" s="6" t="s">
-        <v>495</v>
-      </c>
-      <c r="C152" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F152" s="5" t="s">
-        <v>496</v>
-      </c>
-      <c r="G152" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I152" s="6" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A153" s="5" t="s">
-        <v>498</v>
-      </c>
-      <c r="B153" s="6" t="s">
-        <v>499</v>
-      </c>
-      <c r="C153" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F153" s="5" t="s">
-        <v>500</v>
       </c>
       <c r="G153" s="6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" s="5" t="s">
-        <v>501</v>
+        <v>477</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>502</v>
+        <v>478</v>
       </c>
       <c r="C154" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F154" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="G154" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J154" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F154" s="5" t="s">
-        <v>503</v>
-      </c>
-      <c r="G154" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I154" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" s="5" t="s">
-        <v>504</v>
+        <v>480</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>505</v>
+        <v>481</v>
       </c>
       <c r="C155" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F155" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="G155" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J155" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F155" s="5" t="s">
-        <v>506</v>
-      </c>
-      <c r="G155" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I155" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A156" s="5" t="s">
-        <v>507</v>
+        <v>483</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>508</v>
+        <v>484</v>
       </c>
       <c r="C156" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F156" s="5" t="s">
-        <v>509</v>
+        <v>485</v>
       </c>
       <c r="G156" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="I156" s="6" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J156" s="6" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" s="5" t="s">
-        <v>510</v>
+        <v>486</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>511</v>
+        <v>487</v>
       </c>
       <c r="C157" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E157" s="6">
         <v>2011</v>
       </c>
       <c r="F157" s="5" t="s">
-        <v>512</v>
+        <v>488</v>
       </c>
       <c r="G157" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="I157" s="6" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J157" s="6" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" s="5" t="s">
-        <v>513</v>
+        <v>489</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>514</v>
+        <v>490</v>
       </c>
       <c r="C158" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E158" s="6">
         <v>2011</v>
       </c>
       <c r="F158" s="5" t="s">
-        <v>515</v>
+        <v>491</v>
       </c>
       <c r="G158" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="I158" s="6" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9" ht="33" x14ac:dyDescent="0.25">
+      <c r="J158" s="6" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159" s="5" t="s">
-        <v>516</v>
+        <v>492</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
       <c r="C159" s="7" t="s">
-        <v>518</v>
+        <v>494</v>
       </c>
       <c r="E159" s="6">
         <v>2012</v>
       </c>
       <c r="F159" s="5" t="s">
-        <v>519</v>
+        <v>495</v>
       </c>
       <c r="G159" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="I159" s="6" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J159" s="6" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A160" s="5" t="s">
-        <v>521</v>
+        <v>497</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>522</v>
+        <v>498</v>
       </c>
       <c r="C160" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F160" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="G160" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J160" s="6" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A161" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="B161" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="C161" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F161" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="G161" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J161" s="6" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A162" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="B162" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="C162" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F162" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="G162" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J162" s="6" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A163" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="B163" s="6" t="s">
+        <v>507</v>
+      </c>
+      <c r="C163" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F163" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="G163" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J163" s="6" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A164" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="B164" s="6" t="s">
+        <v>510</v>
+      </c>
+      <c r="C164" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F164" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="G164" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J164" s="6" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A165" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="B165" s="6" t="s">
+        <v>513</v>
+      </c>
+      <c r="C165" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F165" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="G165" s="6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J165" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="F160" s="5" t="s">
-        <v>523</v>
-      </c>
-      <c r="G160" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I160" s="6" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A161" s="5" t="s">
-        <v>524</v>
-      </c>
-      <c r="B161" s="6" t="s">
-        <v>525</v>
-      </c>
-      <c r="C161" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F161" s="5" t="s">
-        <v>526</v>
-      </c>
-      <c r="G161" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I161" s="6" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A162" s="5" t="s">
-        <v>527</v>
-      </c>
-      <c r="B162" s="6" t="s">
-        <v>528</v>
-      </c>
-      <c r="C162" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F162" s="5" t="s">
-        <v>529</v>
-      </c>
-      <c r="G162" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I162" s="6" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A163" s="5" t="s">
-        <v>530</v>
-      </c>
-      <c r="B163" s="6" t="s">
-        <v>531</v>
-      </c>
-      <c r="C163" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F163" s="5" t="s">
-        <v>532</v>
-      </c>
-      <c r="G163" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I163" s="6" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A164" s="5" t="s">
-        <v>533</v>
-      </c>
-      <c r="B164" s="6" t="s">
-        <v>534</v>
-      </c>
-      <c r="C164" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F164" s="5" t="s">
-        <v>535</v>
-      </c>
-      <c r="G164" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I164" s="6" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A165" s="5" t="s">
-        <v>536</v>
-      </c>
-      <c r="B165" s="6" t="s">
-        <v>537</v>
-      </c>
-      <c r="C165" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F165" s="5" t="s">
-        <v>538</v>
-      </c>
-      <c r="G165" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I165" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" s="5" t="s">
-        <v>539</v>
+        <v>515</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>540</v>
+        <v>516</v>
       </c>
       <c r="C166" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E166" s="6">
         <v>2013</v>
       </c>
       <c r="F166" s="5" t="s">
-        <v>541</v>
+        <v>517</v>
       </c>
       <c r="G166" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="I166" s="6" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J166" s="6" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" s="5" t="s">
-        <v>543</v>
+        <v>519</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>544</v>
+        <v>520</v>
       </c>
       <c r="C167" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E167" s="6">
         <v>2013</v>
       </c>
       <c r="F167" s="5" t="s">
-        <v>545</v>
+        <v>521</v>
       </c>
       <c r="G167" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="I167" s="6" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J167" s="6" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A168" s="5" t="s">
-        <v>547</v>
+        <v>523</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>548</v>
+        <v>524</v>
       </c>
       <c r="C168" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F168" s="5" t="s">
-        <v>549</v>
+        <v>525</v>
       </c>
       <c r="G168" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="I168" s="6" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J168" s="6" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" s="5" t="s">
-        <v>551</v>
+        <v>527</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>552</v>
+        <v>528</v>
       </c>
       <c r="C169" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E169" s="6">
         <v>2015</v>
       </c>
       <c r="F169" s="5" t="s">
-        <v>553</v>
+        <v>529</v>
       </c>
       <c r="G169" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="I169" s="6" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J169" s="6" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" s="5" t="s">
-        <v>554</v>
+        <v>530</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>555</v>
+        <v>531</v>
       </c>
       <c r="C170" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E170" s="6">
         <v>2015</v>
       </c>
       <c r="F170" s="5" t="s">
-        <v>556</v>
+        <v>532</v>
       </c>
       <c r="G170" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="I170" s="6" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J170" s="6" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" s="5" t="s">
-        <v>558</v>
+        <v>534</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>559</v>
+        <v>535</v>
       </c>
       <c r="C171" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E171" s="6">
         <v>2012</v>
       </c>
       <c r="F171" s="5" t="s">
-        <v>560</v>
+        <v>536</v>
       </c>
       <c r="G171" s="6" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" s="5" t="s">
-        <v>561</v>
+        <v>537</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>562</v>
+        <v>538</v>
       </c>
       <c r="C172" s="7" t="s">
-        <v>563</v>
+        <v>539</v>
       </c>
       <c r="E172" s="6">
         <v>2019</v>
       </c>
       <c r="F172" s="5" t="s">
-        <v>564</v>
+        <v>540</v>
       </c>
       <c r="G172" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="I172" s="6" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9" ht="33" x14ac:dyDescent="0.25">
+      <c r="J172" s="6" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" s="5" t="s">
-        <v>565</v>
+        <v>541</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>566</v>
+        <v>542</v>
       </c>
       <c r="C173" s="7" t="s">
-        <v>567</v>
+        <v>543</v>
       </c>
       <c r="E173" s="6">
         <v>2019</v>
       </c>
       <c r="F173" s="5" t="s">
-        <v>568</v>
+        <v>544</v>
       </c>
       <c r="G173" s="6" t="b">
         <v>0</v>
       </c>
-      <c r="I173" s="6" t="s">
-        <v>557</v>
+      <c r="J173" s="6" t="s">
+        <v>533</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:I173" numberStoredAsText="1"/>
+    <ignoredError sqref="J1:J173 A2:H25 A1:G1 A27:H34 A26:C26 F26:G26 A39:H55 A35:C38 F35:H38 A58:H67 A56:C57 F56:H57 A75:H79 A68:C74 F68:H74 A81:H84 A80:C80 F80:H80 A86:H88 A85:C85 F85:H85 A90:H94 A89:C89 F89:H89 A96:H110 A95:C95 F95:H95 A112:H132 A111:D111 F111:H111 A137:H173 A133:C136 F133:H136" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>